--- a/You Tube Examples/Cassidy2015_AndesiteMI_YouTubeDemo.xlsx
+++ b/You Tube Examples/Cassidy2015_AndesiteMI_YouTubeDemo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\!!!!!!PHD\Fissure8_MI_Work\MagmaSat\CompanionPaperVesical\YouTube_Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F2452-4524-404A-BE48-29E198FFA0AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B0F2C-C150-4947-9EED-E907398572BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{AEF10B07-9BB3-4FBC-8E60-CF6CADEBD2FE}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="12504" xr2:uid="{AEF10B07-9BB3-4FBC-8E60-CF6CADEBD2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Pyx</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>FeOTotalfromMike</t>
-  </si>
-  <si>
     <t>Fe2O3</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Pyx_2</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,23 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE2F61-3681-4834-A363-D88887282203}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -508,39 +505,36 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -555,44 +549,39 @@
         <v>16.399999999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>3.98</v>
+        <v>0.66332669999999994</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G9" si="0">F2*0.15*1.1111</f>
-        <v>0.66332669999999994</v>
+        <v>3.383</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H9" si="1">F2*0.85</f>
-        <v>3.383</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J2" s="1">
-        <v>0.87</v>
+        <v>4.53</v>
       </c>
       <c r="K2" s="1">
-        <v>4.53</v>
+        <v>4.08</v>
       </c>
       <c r="L2" s="1">
-        <v>4.08</v>
+        <v>1.05</v>
       </c>
       <c r="M2" s="1">
-        <v>1.05</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>5.0599999999999996</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="O2" s="1">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="P2" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -607,44 +596,39 @@
         <v>16.5</v>
       </c>
       <c r="F3" s="1">
-        <v>3.44</v>
+        <v>0.57332760000000005</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.57332760000000005</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9239999999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J3" s="1">
-        <v>0.78</v>
+        <v>4.24</v>
       </c>
       <c r="K3" s="1">
-        <v>4.24</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="L3" s="1">
-        <v>4.3099999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="M3" s="1">
-        <v>0.97</v>
+        <v>5.08</v>
       </c>
       <c r="N3" s="1">
-        <v>5.08</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="O3" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="P3" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -659,47 +643,42 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>5.57</v>
+        <v>0.92832404999999996</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92832404999999996</v>
+        <v>4.7344999999999997</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7344999999999997</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="J4" s="1">
-        <v>2.36</v>
+        <v>5.7</v>
       </c>
       <c r="K4" s="1">
-        <v>5.7</v>
+        <v>2.13</v>
       </c>
       <c r="L4" s="1">
-        <v>2.13</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>2.2200000000000002</v>
+        <v>5.62</v>
       </c>
       <c r="N4" s="1">
-        <v>5.62</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="P4" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>67.599999999999994</v>
@@ -711,44 +690,39 @@
         <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>0.48</v>
+        <v>7.9999199999999993E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9999199999999993E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.40799999999999997</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J5" s="1">
-        <v>0.02</v>
+        <v>3.14</v>
       </c>
       <c r="K5" s="1">
-        <v>3.14</v>
+        <v>4.51</v>
       </c>
       <c r="L5" s="1">
-        <v>4.51</v>
+        <v>1.58</v>
       </c>
       <c r="M5" s="1">
-        <v>1.58</v>
+        <v>6.19</v>
       </c>
       <c r="N5" s="1">
-        <v>6.19</v>
+        <v>4.3E-3</v>
       </c>
       <c r="O5" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="P5" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -763,42 +737,37 @@
         <v>16.899999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.46</v>
+        <v>7.6665900000000009E-2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6665900000000009E-2</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.39100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J6" s="1">
-        <v>0.02</v>
+        <v>3.31</v>
       </c>
       <c r="K6" s="1">
-        <v>3.31</v>
+        <v>4.49</v>
       </c>
       <c r="L6" s="1">
-        <v>4.49</v>
+        <v>1.6</v>
       </c>
       <c r="M6" s="1">
-        <v>1.6</v>
+        <v>5.48</v>
       </c>
       <c r="N6" s="1">
-        <v>5.48</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="O6" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="P6" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,42 +784,37 @@
         <v>15.8</v>
       </c>
       <c r="F7" s="1">
-        <v>5.49</v>
+        <v>0.91499085000000002</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91499085000000002</v>
+        <v>4.6665000000000001</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6665000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J7" s="1">
-        <v>2.8</v>
+        <v>6.56</v>
       </c>
       <c r="K7" s="1">
-        <v>6.56</v>
+        <v>1.94</v>
       </c>
       <c r="L7" s="1">
-        <v>1.94</v>
+        <v>0.32</v>
       </c>
       <c r="M7" s="1">
-        <v>0.32</v>
+        <v>5.2</v>
       </c>
       <c r="N7" s="1">
-        <v>5.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P7" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -867,90 +831,80 @@
         <v>16.2</v>
       </c>
       <c r="F8" s="1">
-        <v>1.4</v>
+        <v>0.23333099999999998</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23333099999999998</v>
+        <v>1.19</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J8" s="1">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="K8" s="1">
         <v>4.2</v>
       </c>
       <c r="L8" s="1">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="M8" s="1">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="N8" s="1">
-        <v>5.7</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="P8" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>63</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0.62</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="F9" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
+      <c r="F9">
         <v>0.69999299999999998</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
+      <c r="G9">
         <v>3.57</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9">
         <v>4.3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="K9">
         <v>3.3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9">
         <v>0.9</v>
       </c>
-      <c r="N9" s="1">
+      <c r="M9">
         <v>5.0999999999999996</v>
       </c>
+      <c r="N9">
+        <v>1.4E-2</v>
+      </c>
       <c r="O9" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="P9" s="1">
         <v>1050</v>
       </c>
     </row>
